--- a/companies/trendyol/screenProtector/screenProtector.xlsx
+++ b/companies/trendyol/screenProtector/screenProtector.xlsx
@@ -1236,13 +1236,13 @@
   </sheetData>
   <dataValidations count="26">
     <dataValidation type="list" sqref="X2:X1048576" allowBlank="true" errorStyle="stop" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
-      <formula1>Urun_Ozellik_Bilgileri!$A$2:$A$742</formula1>
+      <formula1>Urun_Ozellik_Bilgileri!$A$2:$A$923</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Y2:Y1048576" allowBlank="true" errorStyle="stop" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
       <formula1>Urun_Ozellik_Bilgileri!$B$2:$B$8</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Z2:Z1048576" allowBlank="true" errorStyle="stop" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
-      <formula1>Urun_Ozellik_Bilgileri!$C$2:$C$12</formula1>
+      <formula1>Urun_Ozellik_Bilgileri!$C$2:$C$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1048576" allowBlank="true" errorStyle="stop" promptTitle="PARA BİRİMİ GİRİN" prompt="Ürün fiyatının para birimi değerini girin." showInputMessage="true" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
       <formula1>Urun_Ozellik_Bilgileri!$D$2:$D$2</formula1>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Alcatel Uyumlu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Casper</t>
+          <t>Apple Uyumlu</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alcatel 1S 2019</t>
+          <t>Alcatel 1 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>General Mobile</t>
+          <t>Asus Uyumlu</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1450,7 +1450,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alcatel 1S 2020</t>
+          <t>Alcatel 1S 2019</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Huawei</t>
+          <t>Casper Uyumlu</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1472,7 +1472,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alcatel 1S 2021</t>
+          <t>Alcatel 1S 2020</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1482,14 +1482,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lenovo</t>
+          <t>General Mobile Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alcatel 3</t>
+          <t>Alcatel 1S 2021</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1499,14 +1499,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Oppo</t>
+          <t>Honor Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Alcatel 3V</t>
+          <t>Alcatel 3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1516,5165 +1516,6452 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>POCO</t>
+          <t>Huawei Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Alcatel 3X 2019</t>
+          <t>Alcatel 3V</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Realme</t>
+          <t>Lenovo Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Alcatel 5</t>
+          <t>Alcatel 3X 2019</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Reeder</t>
+          <t>Oppo Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Alcatel A3 XL</t>
+          <t>Alcatel 3X 2020</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>POCO Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Alcatel A7</t>
+          <t>Alcatel 5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>Realme Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alcatel U5</t>
+          <t>Alcatel A3 XL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Reeder Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Asus Zenfone 2</t>
+          <t>Alcatel A7</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Samsung Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Asus Zenfone 2 Laser 5.0 inç</t>
+          <t>Alcatel U5</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TCL Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Asus Zenfone 2 Laser 5.5 inç</t>
+          <t>Android One 4G</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Xiaomi Uyumlu</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3</t>
+          <t>Asus Zenfone 2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3 Delux 5.5 inç</t>
+          <t>Asus Zenfone 2 Laser 5.0 inç</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3 Delux 5.7 inç</t>
+          <t>Asus Zenfone 2 Laser 5.5 inç</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3 Laser</t>
+          <t>Asus Zenfone 3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3 Max 5.2 inç</t>
+          <t>Asus Zenfone 3 Delux 5.5 inç</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Asus Zenfone 3 Max 5.5 inç</t>
+          <t>Asus Zenfone 3 Delux 5.7 inç</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Asus Zenfone 4</t>
+          <t>Asus Zenfone 3 Laser</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Asus Zenfone 4 Max 5.2 inç</t>
+          <t>Asus Zenfone 3 Max 5.2 inç</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Asus Zenfone 4 Max 5.5 inç</t>
+          <t>Asus Zenfone 3 Max 5.5 inç</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Asus Zenfone 4 Selfie</t>
+          <t>Asus Zenfone 4</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Asus Zenfone 5</t>
+          <t>Asus Zenfone 4 Max 5.2 inç</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Asus Zenfone GO 5.0 inç</t>
+          <t>Asus Zenfone 4 Max 5.5 inç</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Asus Zenfone GO 5.2 inç</t>
+          <t>Asus Zenfone 4 Selfie</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Asus ZenFone Live 5.0 inç</t>
+          <t>Asus Zenfone 5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Asus ZenFone Live 5.5 inç</t>
+          <t>Asus Zenfone GO 5.0 inç</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Asus Zenfone Max</t>
+          <t>Asus Zenfone GO 5.2 inç</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Plus</t>
+          <t>Asus ZenFone Live 5.0 inç</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Asus ZenFone Max Pro M1</t>
+          <t>Asus ZenFone Live 5.5 inç</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Asus Zenfone Selfie</t>
+          <t>Asus Zenfone Max</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Avea inTouch 4</t>
+          <t>Asus ZenFone Max Plus</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Casper Via A1</t>
+          <t>Asus ZenFone Max Pro M1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Casper Via A1 Plus</t>
+          <t>Asus Zenfone Selfie</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Casper Via A2</t>
+          <t>Avea inTouch 4</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Casper Via A3</t>
+          <t>Casper Via A1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Casper Via A3 Plus</t>
+          <t>Casper Via A1 Plus</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Casper Via E1</t>
+          <t>Casper Via A2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Casper Via E1c</t>
+          <t>Casper Via A3</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Casper Via E2</t>
+          <t>Casper Via A3 Plus</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Casper Via F1</t>
+          <t>Casper Via A4</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Casper Via F2</t>
+          <t>Casper Via E1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Casper Via G1</t>
+          <t>Casper Via E1c</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Casper Via G1 Plus</t>
+          <t>Casper Via E2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Casper Via G3</t>
+          <t>Casper Via E3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Casper Via G4</t>
+          <t>Casper Via F1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Casper Via M1</t>
+          <t>Casper Via F2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Casper Via M2</t>
+          <t>Casper Via F3</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Casper Via M3</t>
+          <t>Casper Via F30</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Casper Via M4</t>
+          <t>Casper Via G1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Casper Via P1</t>
+          <t>Casper Via G1 Plus</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Casper Via S</t>
+          <t>Casper Via G3</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Casper Via V10</t>
+          <t>Casper Via G4</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Casper Via V6</t>
+          <t>Casper Via M1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Casper Via V6X</t>
+          <t>Casper Via M2</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Casper Via V8</t>
+          <t>Casper Via M3</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Casper Via V8c</t>
+          <t>Casper Via M4</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Galaxt Note 10 Lite</t>
+          <t>Casper Via P1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Galaxy A01</t>
+          <t>Casper Via P2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Galaxy A02</t>
+          <t>Casper Via P3</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Galaxy A02s</t>
+          <t>Casper Via S</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Galaxy A10</t>
+          <t>Casper Via V10</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Galaxy A10s</t>
+          <t>Casper Via V6</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Galaxy A11</t>
+          <t>Casper Via V6X</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Galaxy A12</t>
+          <t>Casper Via V8</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Casper Via V8c</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Galaxy A20</t>
+          <t>Galaxt Note 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Galaxy A20e</t>
+          <t>Galaxy A01</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Galaxy A20S</t>
+          <t>Galaxy A02</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Galaxy A21</t>
+          <t>Galaxy A02s</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Galaxy A21S</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Galaxy A22 4G</t>
+          <t>Galaxy A10</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Galaxy A2 Core</t>
+          <t>Galaxy A10s</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Galaxy A3</t>
+          <t>Galaxy A11</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Galaxy A3 (2016)</t>
+          <t>Galaxy A12</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Galaxy A3 (2017)</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Galaxy A30</t>
+          <t>Galaxy A20</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Galaxy A30S</t>
+          <t>Galaxy A20e</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Galaxy A31</t>
+          <t>Galaxy A20S</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Galaxy A32 4G</t>
+          <t>Galaxy A21</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Galaxy A40</t>
+          <t>Galaxy A21S</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Galaxy A41</t>
+          <t>Galaxy A22 4G</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Galaxy A5</t>
+          <t>Galaxy A2 Core</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Galaxy A5 (2016)</t>
+          <t>Galaxy A3</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Galaxy A5 (2017)</t>
+          <t>Galaxy A3 (2016)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Galaxy A5 (2018)</t>
+          <t>Galaxy A3 (2017)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Galaxy A50</t>
+          <t>Galaxy A30</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Galaxy A50s</t>
+          <t>Galaxy A30S</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Galaxy A51</t>
+          <t>Galaxy A31</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Galaxy A53</t>
+          <t>Galaxy A32 4G</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Galaxy A6</t>
+          <t>Galaxy A40</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Galaxy A6 (2018)</t>
+          <t>Galaxy A41</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Galaxy A6+ Plus</t>
+          <t>Galaxy A5</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Galaxy A60</t>
+          <t>Galaxy A5 (2016)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Galaxy A6 Plus (2018)</t>
+          <t>Galaxy A5 (2017)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Galaxy A7</t>
+          <t>Galaxy A5 (2018)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Galaxy A7 (2016)</t>
+          <t>Galaxy A50</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Galaxy A7 (2017)</t>
+          <t>Galaxy A50s</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Galaxy A70</t>
+          <t>Galaxy A51</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Galaxy A70S</t>
+          <t>Galaxy A53</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Galaxy A71</t>
+          <t>Galaxy A6</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Galaxy A7 2018</t>
+          <t>Galaxy A6 (2018)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Galaxy A8</t>
+          <t>Galaxy A6+ Plus</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Galaxy A80</t>
+          <t>Galaxy A60</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Galaxy A81</t>
+          <t>Galaxy A6 Plus (2018)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Galaxy A8 2016</t>
+          <t>Galaxy A7</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Galaxy A8 2018</t>
+          <t>Galaxy A7 (2016)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Galaxy A8 Plus 2018</t>
+          <t>Galaxy A7 (2017)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Galaxy A91</t>
+          <t>Galaxy A70</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Galaxy A9 2016</t>
+          <t>Galaxy A70S</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Galaxy A9 2018</t>
+          <t>Galaxy A71</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Galaxy Alpha</t>
+          <t>Galaxy A7 2018</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Galaxy C5</t>
+          <t>Galaxy A8</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Galaxy C5 Pro</t>
+          <t>Galaxy A80</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Galaxy C7</t>
+          <t>Galaxy A81</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Galaxy C7 Pro</t>
+          <t>Galaxy A8 2016</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Galaxy C8</t>
+          <t>Galaxy A8 2018</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Galaxy C9 Pro</t>
+          <t>Galaxy A8 Plus 2018</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Galaxy Core 2</t>
+          <t>Galaxy A8s</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Galaxy Core Prime</t>
+          <t>Galaxy A91</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Galaxy E5</t>
+          <t>Galaxy A9 2016</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Galaxy E7</t>
+          <t>Galaxy A9 2018</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Galaxy Grand 2</t>
+          <t>Galaxy Alpha</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Galaxy Grand Duos</t>
+          <t>Galaxy C5</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Galaxy Grand Max</t>
+          <t>Galaxy C5 Pro</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Galaxy Grand Neo</t>
+          <t>Galaxy C7</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Galaxy Grand Prime</t>
+          <t>Galaxy C7 Pro</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Galaxy Grand Prime Plus</t>
+          <t>Galaxy C8</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Galaxy Grand Prime Pro</t>
+          <t>Galaxy C9 Pro</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Galaxy J1</t>
+          <t>Galaxy Core 2</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Galaxy J1 2016</t>
+          <t>Galaxy Core Prime</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Galaxy J1 Ace</t>
+          <t>Galaxy E5</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Galaxy J1 Mini</t>
+          <t>Galaxy E7</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Galaxy J1 Mini Prime</t>
+          <t>Galaxy Grand 2</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Galaxy J2</t>
+          <t>Galaxy Grand Duos</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Galaxy J2 Core</t>
+          <t>Galaxy Grand Max</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Galaxy J2 Prime</t>
+          <t>Galaxy Grand Neo</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Galaxy J2 Pro 2018</t>
+          <t>Galaxy Grand Prime</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Galaxy J3 (2016)</t>
+          <t>Galaxy Grand Prime Plus</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Galaxy J3 Pro</t>
+          <t>Galaxy Grand Prime Pro</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Galaxy J3 Pro 2016</t>
+          <t>Galaxy İ9060</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Galaxy J4</t>
+          <t>Galaxy J1</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Galaxy J4+ Plus</t>
+          <t>Galaxy J1 2016</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Galaxy J4 Core</t>
+          <t>Galaxy J1 Ace</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Galaxy J5</t>
+          <t>Galaxy J1 Mini</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Galaxy J5 2016</t>
+          <t>Galaxy J1 Mini Prime</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Galaxy J5 Prime</t>
+          <t>Galaxy J2</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Galaxy J5 Pro</t>
+          <t>Galaxy J2 Core</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Galaxy J6</t>
+          <t>Galaxy J2 Prime</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Galaxy J6+ Plus</t>
+          <t>Galaxy J2 Pro 2018</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Galaxy J6 Prime</t>
+          <t>Galaxy J3 (2016)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Galaxy J7</t>
+          <t>Galaxy J3 Pro</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Galaxy J7 2015</t>
+          <t>Galaxy J3 Pro 2016</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Galaxy J7 2016</t>
+          <t>Galaxy J4</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Galaxy J7 Core</t>
+          <t>Galaxy J4+ Plus</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Galaxy J7 Duo</t>
+          <t>Galaxy J4 Core</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Galaxy J7 Max</t>
+          <t>Galaxy J5</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Galaxy J7 Prime</t>
+          <t>Galaxy J5 2016</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Galaxy J7 Prime 2</t>
+          <t>Galaxy J5 Prime</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Galaxy J7 Pro</t>
+          <t>Galaxy J5 Pro</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Galaxy J8</t>
+          <t>Galaxy J6</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Galaxy M10</t>
+          <t>Galaxy J6+ Plus</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Galaxy M10S</t>
+          <t>Galaxy J6 Prime</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Galaxy M11</t>
+          <t>Galaxy J7</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Galaxy M12</t>
+          <t>Galaxy J7 2015</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Galaxy M20</t>
+          <t>Galaxy J7 2016</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Galaxy M21</t>
+          <t>Galaxy J7 Core</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Galaxy M30</t>
+          <t>Galaxy J7 Duo</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Galaxy M30S</t>
+          <t>Galaxy J7 Max</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Galaxy M31</t>
+          <t>Galaxy J7 Prime</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Galaxy M31s</t>
+          <t>Galaxy J7 Prime 2</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Galaxy M40</t>
+          <t>Galaxy J7 Pro</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Galaxy M51</t>
+          <t>Galaxy J8</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Galaxy Note 10</t>
+          <t>Galaxy M10</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Galaxy Note 10 Lite</t>
+          <t>Galaxy M10S</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Galaxy Note 10 Plus</t>
+          <t>Galaxy M11</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Galaxy Note 2</t>
+          <t>Galaxy M12</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Galaxy Note 20</t>
+          <t>Galaxy M13</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Galaxy Note 20 Ultra</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Galaxy Note 3</t>
+          <t>Galaxy M20</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Galaxy Note 4</t>
+          <t>Galaxy M21</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Galaxy Note 5</t>
+          <t>Galaxy M30</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Galaxy Note 8</t>
+          <t>Galaxy M30S</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Galaxy Note 9</t>
+          <t>Galaxy M31</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Galaxy Note FE</t>
+          <t>Galaxy M31s</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Galaxy ON5</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Galaxy ON7</t>
+          <t>Galaxy M40</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Galaxy S10</t>
+          <t>Galaxy M51</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Galaxy S10e</t>
+          <t>Galaxy Note 10</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Galaxy S10 Lite</t>
+          <t>Galaxy Note 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Galaxy S10 Plus</t>
+          <t>Galaxy Note 10 Plus</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Galaxy S20</t>
+          <t>Galaxy Note 2</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE</t>
+          <t>Galaxy Note 20</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Galaxy S20 Plus</t>
+          <t>Galaxy Note 20 Ultra</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Galaxy S20 Ultra</t>
+          <t>Galaxy Note 3</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Galaxy S21</t>
+          <t>Galaxy Note 4</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Galaxy S21 FE</t>
+          <t>Galaxy Note 5</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Galaxy S21 Plus</t>
+          <t>Galaxy Note 8</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra</t>
+          <t>Galaxy Note 9</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Galaxy S22</t>
+          <t>Galaxy Note FE</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Galaxy S22 Plus</t>
+          <t>Galaxy ON5</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Galaxy S22 Ultra</t>
+          <t>Galaxy ON7</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Galaxy S23 Ultra</t>
+          <t>Galaxy S10</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Galaxy S3</t>
+          <t>Galaxy S10e</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Galaxy S3 Mini</t>
+          <t>Galaxy S10 Lite</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Galaxy S4</t>
+          <t>Galaxy S10 Plus</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Galaxy S4 Mini</t>
+          <t>Galaxy S20</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Galaxy S5</t>
+          <t>Galaxy S20 FE</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Galaxy S5 Mini</t>
+          <t>Galaxy S20 Plus</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Galaxy S6</t>
+          <t>Galaxy S20 Ultra</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Galaxy S6 Edge</t>
+          <t>Galaxy S21</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Galaxy S6 Edge Plus</t>
+          <t>Galaxy S21 FE</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Galaxy S7</t>
+          <t>Galaxy S21 Plus</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Galaxy S7 Edge</t>
+          <t>Galaxy S21 Ultra</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Galaxy S8</t>
+          <t>Galaxy S22</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Galaxy S8 Plus</t>
+          <t>Galaxy S22 Plus</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Galaxy S9</t>
+          <t>Galaxy S22 Ultra</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Galaxy S9 Plus</t>
+          <t>Galaxy S23 Fe</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold 5</t>
+          <t>Galaxy S23 Ultra</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>General Mobile Android One</t>
+          <t>Galaxy S3</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>General Mobile Discovery</t>
+          <t>Galaxy S3 Mini</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>General Mobile Discovery 2</t>
+          <t>Galaxy S4</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>General Mobile Discovery 2 Mini</t>
+          <t>Galaxy S4 Mini</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>General Mobile Discovery Air</t>
+          <t>Galaxy S5</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>General Mobile Discovery Elite</t>
+          <t>Galaxy S5 Mini</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>General Mobile Discovery Elite Plus</t>
+          <t>Galaxy S6</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>General Mobile GM 20</t>
+          <t>Galaxy S6 Edge</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>General Mobile GM 20 Pro</t>
+          <t>Galaxy S6 Edge Plus</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>General Mobile GM 21</t>
+          <t>Galaxy S7</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>General Mobile GM 21 Plus</t>
+          <t>Galaxy S7 Edge</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>General Mobile GM 21 Pro</t>
+          <t>Galaxy S8</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>General Mobile GM5</t>
+          <t>Galaxy S8 Plus</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>General Mobile GM5 Plus</t>
+          <t>Galaxy S9</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>General Mobile GM6</t>
+          <t>Galaxy S9 Plus</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>General Mobile GM8</t>
+          <t>Galaxy Z Flip</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>General Mobile GM8 GO</t>
+          <t>Galaxy Z Flip 4</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>General Mobile GM9 Pro</t>
+          <t>Galaxy Z Flip 5</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>GM 10</t>
+          <t>Galaxy Z Fold 2</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>GM20</t>
+          <t>Galaxy Z Fold 3</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>GM20 Pro</t>
+          <t>Galaxy Z Fold 4</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>GM 23</t>
+          <t>Galaxy Z Fold 5</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>GM 23 SE</t>
+          <t>General Mobile 23</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Honor 10</t>
+          <t>General Mobile 23SE</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Honor 10 Lite</t>
+          <t>General Mobile 4G</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Honor 20</t>
+          <t>General Mobile Android One</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Honor 20 Lite</t>
+          <t>General Mobile Discovery</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Honor 7</t>
+          <t>General Mobile Discovery 2</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Honor 7C</t>
+          <t>General Mobile Discovery 2 Mini</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Honor 7S</t>
+          <t>General Mobile Discovery Air</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Honor 7X</t>
+          <t>General Mobile Discovery Elite</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Honor 8</t>
+          <t>General Mobile Discovery Elite Plus</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Honor 8A</t>
+          <t>General Mobile GM 20</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Honor 8C</t>
+          <t>General Mobile GM 20 Pro</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Honor 8S</t>
+          <t>General Mobile GM 21</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Honor 8X</t>
+          <t>General Mobile GM 21 Plus</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Honor 9</t>
+          <t>General Mobile GM 21 Pro</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Honor 9 Lite</t>
+          <t>General Mobile GM5</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Honor 9X</t>
+          <t>General Mobile GM5 Plus</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Honor Play</t>
+          <t>General Mobile GM6</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Honor View 20</t>
+          <t>General Mobile GM8</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Htc 10</t>
+          <t>General Mobile GM8 GO</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Htc Desire 12</t>
+          <t>General Mobile GM9 Pro</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Htc Desire 530</t>
+          <t>GM 10</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Htc Desire 620</t>
+          <t>GM20</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Htc Desire 626</t>
+          <t>GM20 Pro</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Htc Desire 728</t>
+          <t>GM 23</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Htc Desire 816</t>
+          <t>GM 23 SE</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Htc Desire 820</t>
+          <t>Honor 10</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Htc Desire 825</t>
+          <t>Honor 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Htc Desire 826</t>
+          <t>Honor 20</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Htc Desire 828</t>
+          <t>Honor 20 Lite</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Htc Desire 830</t>
+          <t>Honor 50</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Htc Desire Eye</t>
+          <t>Honor 7</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Htc One A9</t>
+          <t>Honor 70</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Htc One M7</t>
+          <t>Honor 7C</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Htc One M8</t>
+          <t>Honor 7S</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Htc One M9</t>
+          <t>Honor 7X</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Htc One M9 Plus</t>
+          <t>Honor 8</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Htc U11</t>
+          <t>Honor 8A</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Htc U11 Life</t>
+          <t>Honor 8C</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Huawei Ascend P7</t>
+          <t>Honor 8S</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Huawei G7</t>
+          <t>Honor 8X</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Huawei G8</t>
+          <t>Honor 9</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Huawei GR3</t>
+          <t>Honor 90</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Huawei GR5</t>
+          <t>Honor 9 Lite</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Huawei GR5 2017</t>
+          <t>Honor 9X</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Huawei Mate 10</t>
+          <t>Honor Play</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Huawei Mate 10 Lite</t>
+          <t>Honor View 20</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Huawei Mate 10 Pro</t>
+          <t>Honor X9a</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Huawei Mate 20</t>
+          <t>Htc 10</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Huawei Mate 20 Lite</t>
+          <t>Htc Desire 12</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Huawei Mate 20 Pro</t>
+          <t>HTC Desire 12 Plus</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Huawei Mate 30</t>
+          <t>Htc Desire 530</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Huawei Mate 30 Pro</t>
+          <t>Htc Desire 620</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Huawei Mate 40 Pro</t>
+          <t>Htc Desire 626</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Huawei Mate 7</t>
+          <t>Htc Desire 728</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Huawei Mate 8</t>
+          <t>Htc Desire 816</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Huawei Mate 9</t>
+          <t>Htc Desire 820</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Huawei Mate S</t>
+          <t>Htc Desire 825</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Huawei Nova</t>
+          <t>Htc Desire 826</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Huawei Nova 5T</t>
+          <t>Htc Desire 828</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Huawei P10</t>
+          <t>Htc Desire 830</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Huawei P10 Lite</t>
+          <t>Htc Desire Eye</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Huawei P10 Plus</t>
+          <t>Htc One A9</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Huawei P20</t>
+          <t>Htc One M7</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Huawei P20 Lite</t>
+          <t>Htc One M8</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Huawei P20 Pro</t>
+          <t>Htc One M9</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Huawei P30</t>
+          <t>Htc One M9 Plus</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Huawei P30 Lite</t>
+          <t>Htc U11</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Huawei P30 Pro</t>
+          <t>Htc U11 Life</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Huawei P40</t>
+          <t>Huawei Ascend P7</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Huawei P40 Lite</t>
+          <t>Huawei G7</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Huawei P40 Lite E</t>
+          <t>Huawei G8</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Huawei P40 Pro</t>
+          <t>Huawei GR3</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Huawei P8</t>
+          <t>Huawei GR5</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Huawei P8 Lite</t>
+          <t>Huawei GR5 2017</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Huawei P9</t>
+          <t>Huawei Mate 10</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Huawei P9 Lite</t>
+          <t>Huawei Mate 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Huawei P 9 Lite 2017</t>
+          <t>Huawei Mate 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Huawei P9 Lite Mini</t>
+          <t>Huawei Mate 20</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Huawei P Smart</t>
+          <t>Huawei Mate 20 Lite</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Huawei P Smart 2018</t>
+          <t>Huawei Mate 20 Pro</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Huawei P Smart 2019</t>
+          <t>Huawei Mate 30</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Huawei P Smart 2020</t>
+          <t>Huawei Mate 30 Pro</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Huawei P Smart 2021</t>
+          <t>Huawei Mate 40 Pro</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Huawei P Smart Pro</t>
+          <t>Huawei Mate 7</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Huawei P Smart S</t>
+          <t>Huawei Mate 8</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Huawei P Smart Z</t>
+          <t>Huawei Mate 9</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Huawei Y5 2018</t>
+          <t>Huawei Mate S</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Huawei Y5 2019</t>
+          <t>Huawei Nova</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Huawei Y5 Prime 2018</t>
+          <t>Huawei Nova 5T</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Huawei Y6</t>
+          <t>Huawei P10</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Huawei Y6 2</t>
+          <t>Huawei P10 Lite</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Huawei Y6 2018</t>
+          <t>Huawei P10 Plus</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Huawei Y6 2019</t>
+          <t>Huawei P20</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Huawei Y6P</t>
+          <t>Huawei P20 Lite</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Huawei Y6P 2020</t>
+          <t>Huawei P20 Pro</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Huawei Y6 Prime 2018</t>
+          <t>Huawei P30</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Huawei Y6S</t>
+          <t>Huawei P30 Lite</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Huawei Y6S 2019</t>
+          <t>Huawei P30 Pro</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Huawei Y7</t>
+          <t>Huawei P40</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Huawei Y7 2018</t>
+          <t>Huawei P40 Lite</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Huawei Y7 2019</t>
+          <t>Huawei P40 Lite E</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Huawei Y7 Prime 2019</t>
+          <t>Huawei P40 Pro</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Huawei Y8P</t>
+          <t>Huawei P8</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Huawei Y9 2018</t>
+          <t>Huawei P8 Lite</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Huawei Y9 2019</t>
+          <t>Huawei P9</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Huawei Y9 Prime 2019</t>
+          <t>Huawei P9 Lite</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Infinix Note 7</t>
+          <t>Huawei P 9 Lite 2017</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Infinix Zero 8</t>
+          <t>Huawei P9 Lite Mini</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Iphone 5</t>
+          <t>Huawei P Smart</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Iphone Se Plus</t>
+          <t>Huawei P Smart 2018</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>iPhone 11</t>
+          <t>Huawei P Smart 2019</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>iPhone 11 Pro</t>
+          <t>Huawei P Smart 2020</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>iPhone 11 Pro Max</t>
+          <t>Huawei P Smart 2021</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>iPhone 12</t>
+          <t>Huawei P Smart Pro</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>iPhone 12 Mini</t>
+          <t>Huawei P Smart S</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>iPhone 12 Pro</t>
+          <t>Huawei P Smart Z</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>iPhone 12 Pro Max</t>
+          <t>Huawei Y5 2018</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>iPhone 13</t>
+          <t>Huawei Y5 2019</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>iPhone 13 Mini</t>
+          <t>Huawei Y5P</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>iPhone 13 Pro</t>
+          <t>Huawei Y5 Prime 2018</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>iPhone 13 Pro Max</t>
+          <t>Huawei Y6</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>iPhone 14</t>
+          <t>Huawei Y6 2</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>iPhone 14 Plus</t>
+          <t>Huawei Y6 2018</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro</t>
+          <t>Huawei Y6 2019</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro Max</t>
+          <t>Huawei Y6P</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>iPhone 15</t>
+          <t>Huawei Y6P 2020</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>iPhone 15 Plus</t>
+          <t>Huawei Y6 Prime 2018</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>iPhone 15 Pro</t>
+          <t>Huawei Y6S</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>iPhone 15 Pro Max</t>
+          <t>Huawei Y6S 2019</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>iPhone 4/4S</t>
+          <t>Huawei Y7</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>iPhone 5S</t>
+          <t>Huawei Y7 2018</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>iPhone 6</t>
+          <t>Huawei Y7 2019</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>iPhone 6 Plus</t>
+          <t>Huawei Y7 Prime 2019</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>iPhone 6S</t>
+          <t>Huawei Y8P</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>iPhone 6S Plus</t>
+          <t>Huawei Y9 2018</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>iPhone 7</t>
+          <t>Huawei Y9 2019</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>iPhone 7 Plus</t>
+          <t>Huawei Y9 Prime 2019</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>iPhone 8</t>
+          <t>Infinix Hot 10</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>iPhone 8 Plus</t>
+          <t>Infinix Hot 10 Play</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>iPhone SE</t>
+          <t>Infinix Hot 10T</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>iPhone SE 2020</t>
+          <t>Infinix Hot 11 Play</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>iPhone X</t>
+          <t>Infinix Hot 12</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>iPhone XR</t>
+          <t>Infinix Hot 20</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>iPhone XS</t>
+          <t>Infinix Hot 20i</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>iPhone XS Max</t>
+          <t>Infinix Hot 30i</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Lenovo A1000</t>
+          <t>Infinix Note 11 Pro</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Lenovo A2010</t>
+          <t>Infinix Note 30</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Lenovo A5000</t>
+          <t>Infinix Note 7</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Lenovo A6000</t>
+          <t>Infinix Zero 8</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Lenovo A7000</t>
+          <t>Iphone 5</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Lenovo A7010</t>
+          <t>Iphone Se Plus</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Lenovo K5</t>
+          <t>iPhone 11</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Lenovo K5 Note</t>
+          <t>iPhone 11 Pro</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Lenovo K6</t>
+          <t>iPhone 11 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Lenovo K6 Note</t>
+          <t>iPhone 12</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Lenovo Moto E4</t>
+          <t>iPhone 12 Mini</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Lenovo Moto E4 Plus</t>
+          <t>iPhone 12 Pro</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Lenovo Moto G4</t>
+          <t>iPhone 12 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Lenovo Moto G5</t>
+          <t>iPhone 13</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Lenovo Moto G5S</t>
+          <t>iPhone 13 Mini</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Lenovo Moto G5S Plus</t>
+          <t>iPhone 13 Pro</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Lenovo Moto Z</t>
+          <t>iPhone 13 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Lenovo Moto Z2 Play</t>
+          <t>iPhone 14</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Lenovo Moto Z Play</t>
+          <t>iPhone 14 Plus</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Lenovo One Vision</t>
+          <t>iPhone 14 Pro</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Lenovo P2</t>
+          <t>iPhone 14 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Lenovo P70</t>
+          <t>iPhone 15</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Lenovo S60</t>
+          <t>iPhone 15 Plus</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Lenovo S90</t>
+          <t>iPhone 15 Pro</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Lenovo Vibe C</t>
+          <t>iPhone 15 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Lenovo Vibe P1</t>
+          <t>iPhone 4/4S</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Lenovo Vibe P1m</t>
+          <t>iPhone 5S</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Lenovo Vibe P1 Pro</t>
+          <t>iPhone 6</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Lenovo Vibe X2</t>
+          <t>iPhone 6 Plus</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Lg G2</t>
+          <t>iPhone 6S</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Lg G3</t>
+          <t>iPhone 6S Plus</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Lg G3 Beat</t>
+          <t>iPhone 7</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Lg G3 Stylus</t>
+          <t>iPhone 7 Plus</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Lg G4</t>
+          <t>iPhone 8</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Lg G4 Beat</t>
+          <t>iPhone 8 Plus</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Lg G4c</t>
+          <t>iPhone SE</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Lg G4 Stylus</t>
+          <t>iPhone SE 2020</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Lg G5</t>
+          <t>iPhone SE 2022</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Lg G5 Se</t>
+          <t>iPhone X</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Lg G6</t>
+          <t>iPhone XR</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Lg G7 ThinQ</t>
+          <t>iPhone XS</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Lg K10</t>
+          <t>iPhone XS Max</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Lg K10 (2017)</t>
+          <t>Lenovo A1000</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Lg K11</t>
+          <t>Lenovo A2010</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>LG K20 (2019)</t>
+          <t>Lenovo A5000</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Lg K4</t>
+          <t>Lenovo A6000</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>LG K40</t>
+          <t>Lenovo A7000</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>LG K41S</t>
+          <t>Lenovo A7010</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>LG K50S</t>
+          <t>Lenovo K5</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>LG K61</t>
+          <t>Lenovo K5 Note</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Lg K7</t>
+          <t>Lenovo K5 Plus</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Lg K8</t>
+          <t>Lenovo K6</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Lg K8 (2017)</t>
+          <t>Lenovo K6 Note</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Lg K9</t>
+          <t>Lenovo K6 Power</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Lg L Bello</t>
+          <t>Lenovo Moto E4</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Lg L Leon</t>
+          <t>Lenovo Moto E4 Plus</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Lg Q6</t>
+          <t>Lenovo Moto G4</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Lg Q7</t>
+          <t>Lenovo Moto G5</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Lg Stylus</t>
+          <t>Lenovo Moto G5S</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Lg Stylus 2</t>
+          <t>Lenovo Moto G5S Plus</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Lg Stylus 3</t>
+          <t>Lenovo Moto Z</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Lg V10</t>
+          <t>Lenovo Moto Z2 Play</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Lg V20</t>
+          <t>Lenovo Moto Z Play</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Lg V30</t>
+          <t>Lenovo One Vision</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Lg V30 Plus</t>
+          <t>Lenovo P2</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Lg X</t>
+          <t>Lenovo P70</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Lg X Power</t>
+          <t>Lenovo S60</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Lg X Screen</t>
+          <t>Lenovo S90</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Mate 30 Lite</t>
+          <t>Lenovo Vibe C</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Meizu 16TH</t>
+          <t>Lenovo Vibe P1</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Meizu M10</t>
+          <t>Lenovo Vibe P1m</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Meizu M3 Note</t>
+          <t>Lenovo Vibe P1 Pro</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Meizu M5S</t>
+          <t>Lenovo Vibe X2</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Meizu M6</t>
+          <t>Lg G2</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Meizu M6S</t>
+          <t>Lg G3</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Meizu M6T</t>
+          <t>Lg G3 Beat</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Meizu MX4</t>
+          <t>Lg G3 Stylus</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Meizu MX4 Pro</t>
+          <t>Lg G4</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Meizu MX5</t>
+          <t>Lg G4 Beat</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Meizu Note 8</t>
+          <t>Lg G4c</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Meizu Note 9</t>
+          <t>Lg G4 Stylus</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Meizu Pro 6</t>
+          <t>Lg G5</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Meizu X8</t>
+          <t>Lg G5 Se</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Mi 10</t>
+          <t>Lg G6</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Mi 10 Lite</t>
+          <t>Lg G7 ThinQ</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Mi 10 Pro</t>
+          <t>Lg K10</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Mi 10 T</t>
+          <t>Lg K10 (2017)</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Mi 10T Lite</t>
+          <t>Lg K11</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Mi 10 T Pro</t>
+          <t>LG K20 (2019)</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Mi 9T Pro</t>
+          <t>Lg K4</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Mi Note 10 Lite</t>
+          <t>LG K40</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Nokia 2</t>
+          <t>LG K41S</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Nokia 3</t>
+          <t>LG K50S</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Nokia 5</t>
+          <t>LG K51S</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Nokia 5.1 Plus</t>
+          <t>LG K61</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Nokia 6</t>
+          <t>Lg K7</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Nokia 6.1</t>
+          <t>Lg K8</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Nokia 7.1</t>
+          <t>Lg K8 (2017)</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Nokia 8</t>
+          <t>Lg K9</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Nokia Lumia 535</t>
+          <t>Lg L Bello</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Nokia Lumia 540</t>
+          <t>Lg L Leon</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Nokia Lumia 550</t>
+          <t>Lg Q6</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Nokia Lumia 650</t>
+          <t>LG Q60</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Nokia Lumia 950</t>
+          <t>Lg Q7</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Nokia Lumia 950 XL</t>
+          <t>Lg Stylus</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Note 10 Pro</t>
+          <t>Lg Stylus 2</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>OnePlus 5</t>
+          <t>Lg Stylus 3</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>One Plus 9</t>
+          <t>Lg V10</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>One Plus 9 Pro</t>
+          <t>Lg V20</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Oppo A12</t>
+          <t>Lg V30</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Oppo A15</t>
+          <t>Lg V30 Plus</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Oppo A15S</t>
+          <t>Lg X</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Oppo A16</t>
+          <t>Lg X Power</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Oppo A31</t>
+          <t>Lg X Screen</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Oppo A52</t>
+          <t>LG X Style</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Oppo A5 2020</t>
+          <t>LG Zero</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Oppo A54 4G</t>
+          <t>Mate 30 Lite</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Oppo A5S</t>
+          <t>Meizu 16</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Oppo A7</t>
+          <t>Meizu 16TH</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Oppo A72</t>
+          <t>Meizu 16XS</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Oppo A73</t>
+          <t>Meizu M10</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Oppo A74 4G</t>
+          <t>Meizu M3 Note</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Oppo A91</t>
+          <t>Meizu M5S</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Oppo A92</t>
+          <t>Meizu M6</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Oppo A9 2020</t>
+          <t>Meizu M6S</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Oppo AX7</t>
+          <t>Meizu M6T</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Oppo Realme 5 Pro</t>
+          <t>Meizu MX4</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Oppo Realme 6</t>
+          <t>Meizu MX4 Pro</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Oppo Realme 6 Pro</t>
+          <t>Meizu MX5</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Oppo Realme C15</t>
+          <t>Meizu Note 8</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Oppo Reno</t>
+          <t>Meizu Note 9</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Oppo Reno 2</t>
+          <t>Meizu Pro 6</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Oppo Reno 2Z</t>
+          <t>Meizu X8</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Oppo Reno 3</t>
+          <t>Mi 10</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Oppo Reno 4</t>
+          <t>Mi 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Oppo Reno 4 Lite</t>
+          <t>Mi 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Oppo Reno 4 Pro</t>
+          <t>Mi 10 T</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Oppo Reno 5</t>
+          <t>Mi 10T Lite</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Oppo Reno 5 Lite</t>
+          <t>Mi 10 T Pro</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Oppo Reno 5 Pro</t>
+          <t>Mi 11i</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Oppo Reno Z</t>
+          <t>Mi 12</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Oppo RX17 Neo</t>
+          <t>Mi 12 Pro</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Oppo RX 17 Pro</t>
+          <t>Mi 12T</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Oppo RX 7 Neo</t>
+          <t>Mi 12T Pro</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>P40 Pro</t>
+          <t>Mi 13</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Poco F2</t>
+          <t>Mi 13 Lite</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Poco F2 Pro</t>
+          <t>Mi 13 Pro</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Poco F3</t>
+          <t>Mi 13 Ultra</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Pocophone X3</t>
+          <t>Mi 4S</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Poco X3 Pro</t>
+          <t>Mi 9T Pro</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>P Smart 2018</t>
+          <t>Mi Mix 4</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>P Smart Pro 2019</t>
+          <t>Mi Note 10 Lite</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Realme 5</t>
+          <t>Mi Note 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Realme 5i</t>
+          <t>Nokia 2</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Realme 5 Pro</t>
+          <t>Nokia 3</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Realme 6</t>
+          <t>Nokia 5</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Realme 6i</t>
+          <t>Nokia 5.1</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Realme 6 Pro</t>
+          <t>Nokia 5.1 Plus</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Realme 7</t>
+          <t>Nokia 6</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Realme 7 Pro</t>
+          <t>Nokia 6.1</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Realme 8</t>
+          <t>Nokia 7.1</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Realme 8 Pro</t>
+          <t>Nokia 8</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Realme C11</t>
+          <t>Nokia Lumia 535</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Realme C11 2021</t>
+          <t>Nokia Lumia 540</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Realme C2</t>
+          <t>Nokia Lumia 550</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Realme C20</t>
+          <t>Nokia Lumia 650</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Realme C21</t>
+          <t>Nokia Lumia 950</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Realme C25</t>
+          <t>Nokia Lumia 950 XL</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Realme C25S</t>
+          <t>Note 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Realme C3</t>
+          <t>Nova 10</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Realme XT</t>
+          <t>Nova 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Redmi 6A</t>
+          <t>Nova 10 SE</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Redmi 8</t>
+          <t>Nova 8İ</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Redmi Note 10</t>
+          <t>Omix X300</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Redmi Note 10 Pro</t>
+          <t>Omix X400</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Redmi Note 7 Pro</t>
+          <t>OmixX5</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Redmi Note 8</t>
+          <t>Omix X500</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Redmi Note 8 Pro</t>
+          <t>Omix X600</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Redmi Note 8S</t>
+          <t>Omix X700</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Redmi Note 8T</t>
+          <t>One Plus 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Redmi Note 9</t>
+          <t>OnePlus 5</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Redmi Note 9 Pro</t>
+          <t>One Plus 8 Pro</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Redmi Note 9S</t>
+          <t>One Plus 9</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue 2021</t>
+          <t>One Plus 9 Pro</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue 2022</t>
+          <t>OnePlus Nord N10</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Max 2022</t>
+          <t>One Plus Nord N100</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Max L 2022</t>
+          <t>Oppo A12</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Reeder P13 Blue Max Pro</t>
+          <t>Oppo A15</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Reno 10X Zoom</t>
+          <t>Oppo A15S</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Reno 3 Pro</t>
+          <t>Oppo A16</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Samsung A52S 5G</t>
+          <t>Oppo A31</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A01 Core</t>
+          <t>Oppo A36</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A10s</t>
+          <t>Oppo A52</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A32</t>
+          <t>Oppo A5 2020</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A52</t>
+          <t>Oppo A54 4G</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A72</t>
+          <t>Oppo A55 4G</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M52</t>
+          <t>Oppo A55 5G</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M52 5G</t>
+          <t>Oppo A5S</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 3 5G</t>
+          <t>Oppo A7</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Sony Xperia C3</t>
+          <t>Oppo A72</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Sony Xperia C4</t>
+          <t>Oppo A73</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>Sony Xperia C5 Ultra</t>
+          <t>Oppo A74 4G</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Sony Xperia E4</t>
+          <t>Oppo A76</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Sony Xperia E4g</t>
+          <t>Oppo A91</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Sony Xperia E5</t>
+          <t>Oppo A92</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Sony Xperia L1</t>
+          <t>Oppo A9 2020</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Sony Xperia L2</t>
+          <t>Oppo A96 4G</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Sony Xperia M2</t>
+          <t>Oppo AX7</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Sony Xperia M4 Aqua</t>
+          <t>Oppo F9</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Sony Xperia M5</t>
+          <t>Oppo Find X2</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Sony Xperia T2 Ultra</t>
+          <t>Oppo Realme 5 Pro</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Sony Xperia T3</t>
+          <t>Oppo Realme 6</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Sony Xperia X</t>
+          <t>Oppo Realme 6 Pro</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Sony Xperia XA</t>
+          <t>Oppo Realme C15</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Sony Xperia Xa1</t>
+          <t>Oppo Reno</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Plus</t>
+          <t>Oppo Reno 10x Zoom</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Sony Xperia XA1 Ultra</t>
+          <t>Oppo Reno 2</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Sony Xperia XA2</t>
+          <t>Oppo Reno 2Z</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Sony Xperia XA2 Ultra</t>
+          <t>Oppo Reno 3</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Sony Xperia XA Ultra</t>
+          <t>Oppo Reno 3 Pro</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Sony Xperia X Compact</t>
+          <t>Oppo Reno 3 Pro 5G</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Sony Xperia Xz</t>
+          <t>Oppo Reno 4</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Sony Xperia Xz1</t>
+          <t>Oppo Reno 4 Lite</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Sony Xperia Xz Premium</t>
+          <t>Oppo Reno 4 Pro</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Sony Xperia Z</t>
+          <t>Oppo Reno 5</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Sony Xperia Z1</t>
+          <t>Oppo Reno 5 Lite</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>Sony Xperia Z2</t>
+          <t>Oppo Reno 5 Pro</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Sony Xperia Z3</t>
+          <t>Oppo Reno 7 4G</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>Sony Xperia Z3 Compact</t>
+          <t>Oppo Reno Z</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Sony Xperia Z3 Plus</t>
+          <t>Oppo RX17 Neo</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Sony Xperia Z5</t>
+          <t>Oppo RX 17 Pro</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Sony Xperia Z5 Compact</t>
+          <t>Oppo RX 7 Neo</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Sony Xperia Z5 Premium</t>
+          <t>Oukitel C21 Pro</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Turkcell T60</t>
+          <t>P40 Lite 5G</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Turkcell T70</t>
+          <t>P40 Pro</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>Turkcell T80</t>
+          <t>P50 Pocket</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Türk Telekom TT175</t>
+          <t>P50 Pro</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Vestel Venüs 5000</t>
+          <t>Poco F2</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>Vestel Venüs 5530</t>
+          <t>Poco F2 Pro</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Vestel Venüs E2 Plus</t>
+          <t>Poco F3</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Vestel Venüs E3</t>
+          <t>Poco F4</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Vestel Venüs E4</t>
+          <t>POCO F5</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Vestel Venüs GO</t>
+          <t>Poco F5 Pro</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5010</t>
+          <t>Poco M4 Pro 4G</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5020</t>
+          <t>Pocophone X3</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5040</t>
+          <t>Poco X2</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5070</t>
+          <t>Poco X3 Pro</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5570</t>
+          <t>Poco X4 GT</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>Vestel Venüs V3 5580</t>
+          <t>Poco X5 5G</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>Vestel Venüs V4</t>
+          <t>Poco X5 Pro 5G</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>Vestel Venüs V5</t>
+          <t>P Smart 2018</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>Vestel Venüs V6</t>
+          <t>P Smart Pro 2019</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Vestel Venüs V7</t>
+          <t>Realme 10 4G</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Vestel Venüs Z10</t>
+          <t>Realme 5</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Vestel Venüs Z20</t>
+          <t>Realme 5i</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>Vestel Venüs Z30</t>
+          <t>Realme 5 Pro</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Vivo Y11S</t>
+          <t>Realme 6</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Vivo Y20</t>
+          <t>Realme 6i</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>Vivo Y20S</t>
+          <t>Realme 6 Pro</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Vivo Y70</t>
+          <t>Realme 7</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Vodafone Smart 6</t>
+          <t>Realme 7 Pro</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Vodafone Smart Style 7</t>
+          <t>Realme 8</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Xiaomi 13</t>
+          <t>Realme 8 Pro</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 11</t>
+          <t>Realme C11</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 11 Lite</t>
+          <t>Realme C11 2021</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 11 Pro</t>
+          <t>Realme C15</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 11 Ultra</t>
+          <t>Realme C2</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 4</t>
+          <t>Realme C20</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 4C</t>
+          <t>Realme C21</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 5</t>
+          <t>Realme C21Y</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 5S</t>
+          <t>Realme C25</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 5S Plus</t>
+          <t>Realme C25S</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 6</t>
+          <t>Realme C3</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 6X</t>
+          <t>Realme C31</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 8</t>
+          <t>Realme C35</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 8 Lite</t>
+          <t>Realme C3i</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 8 SE</t>
+          <t>Realme C53</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 9</t>
+          <t>Realme C55</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 9 Lite</t>
+          <t>Realme XT</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 9 SE</t>
+          <t>Redmi 12</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 9T</t>
+          <t>Redmi 13C</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>Xiaomi Mi 9T Pro</t>
+          <t>Redmi 4</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A1</t>
+          <t>Redmi 6A</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 (Mi 6X)</t>
+          <t>Redmi 8</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A2 Lite</t>
+          <t>Redmi A1</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>Xiaomi Mi A3</t>
+          <t>Redmi K40 Pro</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Max</t>
+          <t>Redmi Note 10</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Max 2</t>
+          <t>Redmi Note 10 Pro</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Max 3</t>
+          <t>Redmi Note 11 Pro Plus 5G</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Mix</t>
+          <t>Redmi Note 11SE</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Mix 2</t>
+          <t>Redmi Note 11T 5G</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Mix 2S</t>
+          <t>Redmi Note 12 4G</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Mix 3</t>
+          <t>Redmi Note 12 Pro Plus</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Note 10</t>
+          <t>Redmi Note 12S</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Note 10 Lite</t>
+          <t>Redmi Note 6A</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Note 2</t>
+          <t>Redmi Note 7 Pro</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Note 3</t>
+          <t>Redmi Note 8</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Play</t>
+          <t>Redmi Note 8 Pro</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>Xiaomi Note 8</t>
+          <t>Redmi Note 8S</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Xiaomi Note 8 Pro</t>
+          <t>Redmi Note 8T</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>Xiaomi Note 8T</t>
+          <t>Redmi Note 9</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>Xiaomi Poco F2 Pro</t>
+          <t>Redmi Note 9 Pro</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Xiaomi Poco F3</t>
+          <t>Redmi Note 9S</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>Xiaomi Poco M3</t>
+          <t>Reeder P13 Blue</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>Xiaomi Poco M3 Pro</t>
+          <t>Reeder P13 Blue 2021</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>Xiaomi Pocophone F1</t>
+          <t>Reeder P13 Blue 2022</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>Xiaomi Poco X3</t>
+          <t>Reeder P13 Blue Max</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Xiaomi Poco X3 GT</t>
+          <t>Reeder P13 Blue Max 128GB</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 3 Pro</t>
+          <t>Reeder P13 Blue Max 2020</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 3S</t>
+          <t>Reeder P13 Blue Max 2022</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 4A</t>
+          <t>Reeder P13 Blue Max L 2022</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 4X</t>
+          <t>Reeder P13 Blue Max Lite</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5</t>
+          <t>Reeder P13 Blue Max Pro</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5+ Plus</t>
+          <t>Reeder P13 Blue Max Pro Lite</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 5A</t>
+          <t>Reeder P13 Blue Plus 2022</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6</t>
+          <t>Reeder S19 Max Pro</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 6 Pro</t>
+          <t>Reeder S19 Max Pro S</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 7</t>
+          <t>Reeder S23 Pro Max</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 7A</t>
+          <t>Reno 10X Zoom</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 8A</t>
+          <t>Reno 3 Pro</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9</t>
+          <t>Samsung A52S 5G</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9A</t>
+          <t>Samsung Galaxy A01 Core</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9c</t>
+          <t>Samsung Galaxy A10s</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 9T</t>
+          <t>Samsung Galaxy A32</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Go</t>
+          <t>Samsung Galaxy A52</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi K20</t>
+          <t>Samsung Galaxy A72</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi K30</t>
+          <t>Samsung Galaxy M52</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi K30 Pro</t>
+          <t>Samsung Galaxy M52 5G</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi K40</t>
+          <t>Samsung Galaxy Z Flip 3 5G</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10 4G</t>
+          <t>Sony Xperia C3</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10 5G</t>
+          <t>Sony Xperia C4</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10 Lite</t>
+          <t>Sony Xperia C5 Ultra</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10 Pro Max</t>
+          <t>Sony Xperia E4</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10S</t>
+          <t>Sony Xperia E4g</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 3</t>
+          <t>Sony Xperia E5</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 4</t>
+          <t>Sony Xperia L1</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 4X</t>
+          <t>Sony Xperia L2</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5</t>
+          <t>Sony Xperia M2</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5A</t>
+          <t>Sony Xperia M4 Aqua</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5A Prime</t>
+          <t>Sony Xperia M5</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 5 Pro</t>
+          <t>Sony Xperia T2 Ultra</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 6 Pro</t>
+          <t>Sony Xperia T3</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 7</t>
+          <t>Sony Xperia X</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 9 4G</t>
+          <t>Sony Xperia XA</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 9 5G</t>
+          <t>Sony Xperia Xa1</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 9s</t>
+          <t>Sony Xperia XA1 Plus</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi S2</t>
+          <t>Sony Xperia XA1 Ultra</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Y5p 2020</t>
+          <t>Sony Xperia XA2</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>Y6 Prime 2019</t>
+          <t>Sony Xperia XA2 Ultra</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>Y7p 2020</t>
+          <t>Sony Xperia XA Ultra</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
+          <t>Sony Xperia X Compact</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Sony Xperia Xz</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>Sony Xperia Xz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>Sony Xperia Xz Premium</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z1</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z2</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z3</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z3 Compact</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z3 Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z4</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z5</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z5 Compact</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>Sony Xperia Z5 Premium</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>TCL 10L</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>TCL 10 Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>TCL 20E</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>TCL 20 SE</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>TCL 303</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>TCL 30 Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>TCL 30 SE</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>TCL L30</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>TCL L7</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>Tecno Camon 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>Tecno Camon 18P</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>Tecno Camon 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>Tecno Camon 19 Neo</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>Tecno Camon 19 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>Tecno Camon 20 Pro 4G</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>Tecno Camon 20 Pro 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>Tecno Pova</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>Tecno Pova 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>Tecno Pova 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>Tecno Pova 4 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>Tecno Pova Neo</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>Tecno Pova Neo 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>Tecno Spark 10 4G</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>Tecno Spark 10C</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>Tecno Spark 10 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>Tecno Spark 18 Premier</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>Tecno Spark 6 Go</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>Tecno Spark 7 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>Tecno Spark 7T</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>Tecno Spark 8C</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>Tecno Spark 8 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>Tecno Spark 8T</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>Tecno Spark 9 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>Tecno Spark 9T</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>Tecno Spark Go 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>Turkcell T60</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>Turkcell T70</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>Turkcell T80</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>Türk Telekom TT175</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>Vestel Venüs 5000</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>Vestel Venüs 5530</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>Vestel Venüs E2 Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>Vestel Venüs E3</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>Vestel Venüs E4</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>Vestel Venüs GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V3 5010</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V3 5020</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V3 5040</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V3 5070</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V3 5570</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V3 5580</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V4</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V5</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V6</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>Vestel Venüs V7</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>Vestel Venüs Z10</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>Vestel Venüs Z20</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>Vestel Venüs Z30</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>Vivo V25</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>Vivo Y11S</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>Vivo Y15S</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>Vivo Y16</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>Vivo Y20</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>Vivo Y20S</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>Vivo Y21S</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>Vivo Y22s</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>Vivo Y32</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>Vivo Y33S</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>Vivo Y35</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>Vivo Y36 4G</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>Vivo Y51</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>Vivo Y53S</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>Vivo Y70</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>Vodafone Smart 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>Vodafone Smart 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>Vodafone Smart Style 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>Xiaomi 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 11 Lite</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 11 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 11 Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 13T</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 13T Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 4C</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 5S</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 5S Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 6X</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 8 Lite</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 8 SE</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 9 Lite</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 9 SE</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 9T</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi 9T Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi A2 (Mi 6X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi A2 Lite</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Max 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Max 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Mix</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Mix 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Mix 2S</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Mix 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Note 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Note 10 Lite</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Note 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Note 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Play</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>Xiaomi Note 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>Xiaomi Note 8 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>Xiaomi Note 8T</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>Xiaomi Poco F2 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>Xiaomi Poco F3</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>Xiaomi Poco M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>Xiaomi Poco M3 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>Xiaomi Pocophone F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>Xiaomi Poco X3</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>Xiaomi Poco X3 GT</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 3 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 3S</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 4A</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 4X</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 5+ Plus</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 5A</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 6 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 7A</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 8A</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 9A</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 9c</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi 9T</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Go</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi K20</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi K30</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi K30 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi K40</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 10 4G</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 10 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 10 Lite</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 10 Pro Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 10S</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 4X</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 5A</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 5A Prime</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 5 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 6 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 9 4G</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 9 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi Note 9s</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>Xiaomi Redmi S2</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>Y5p 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>Y6 Prime 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>Y7p 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
           <t>Y9 Prime 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>Zenfone 6</t>
         </is>
       </c>
     </row>
